--- a/Statistics/S8_L45/3.13.Confidence-intervals.Two-means.Dependent-samples-exercise.xlsx
+++ b/Statistics/S8_L45/3.13.Confidence-intervals.Two-means.Dependent-samples-exercise.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAC5626-1834-44AA-BC29-9B1706772B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data in lbs" sheetId="1" r:id="rId1"/>
     <sheet name="Data in kg" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Confidence interval for difference of two means, dependent samples</t>
   </si>
@@ -89,13 +90,43 @@
   </si>
   <si>
     <t>Weight after (kg)</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD DEV </t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Confidence interval</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>STD ERR</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>HIGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,11 +151,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF002060"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -193,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -206,15 +232,13 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,41 +518,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -536,13 +562,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -550,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -558,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -566,7 +592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -574,7 +600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
@@ -582,13 +608,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
@@ -601,9 +627,9 @@
       <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -623,7 +649,7 @@
       <c r="I15" s="5"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -638,10 +664,15 @@
         <v>-20.062065842000038</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="5">
+        <f>AVERAGE(E15:E24)</f>
+        <v>-20.024587257460006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -656,10 +687,21 @@
         <v>-29.519896881800008</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1">
+        <f>_xlfn.STDEV.S(E15:E24)</f>
+        <v>6.8588928108641074</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -675,9 +717,22 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I16-I19*(I17/SQRT(10))</f>
+        <v>-24.930802715260288</v>
+      </c>
+      <c r="L18" s="1">
+        <f>I16+I19*(I17/SQRT(10))</f>
+        <v>-15.118371799659723</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -692,14 +747,17 @@
         <v>-10.405818766400017</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.262</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -714,13 +772,11 @@
         <v>-13.51433666059998</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K20" s="11"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -735,12 +791,8 @@
         <v>-18.254275293599989</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -755,12 +807,8 @@
         <v>-18.033813031600005</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -776,12 +824,8 @@
       </c>
       <c r="F23" s="5"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>10</v>
       </c>
@@ -795,18 +839,7 @@
         <f t="shared" si="0"/>
         <v>-29.872636500999988</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="F24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,40 +848,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -856,13 +891,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -870,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -878,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -886,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -894,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
@@ -902,13 +937,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
     </row>
-    <row r="14" spans="2:18" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
@@ -921,9 +956,9 @@
       <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -938,20 +973,12 @@
         <v>-10.809999990934841</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -966,20 +993,16 @@
         <v>-9.0999999923688506</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
+        <f xml:space="preserve"> AVERAGE(E15:E24)</f>
+        <v>-9.0829999923830833</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -994,20 +1017,23 @@
         <v>-13.389999988771265</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1">
+        <f>_xlfn.STDEV.S(E15:E24)</f>
+        <v>3.1111414456558117</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -1022,20 +1048,23 @@
         <v>-5.5699999953290558</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="1">
+        <f>J16-J19*J20</f>
+        <v>-11.308421889617348</v>
+      </c>
+      <c r="N18" s="1">
+        <f>J16+J19*J20</f>
+        <v>-6.8575780951488188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -1050,20 +1079,17 @@
         <v>-4.7199999960418495</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.262</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -1078,20 +1104,18 @@
         <v>-6.1299999948594319</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1">
+        <f xml:space="preserve"> J17/SQRT(10)</f>
+        <v>0.98382930912213284</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -1106,20 +1130,8 @@
         <v>-8.2799999930564638</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -1134,20 +1146,8 @@
         <v>-8.1799999931403278</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="2:18" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -1162,20 +1162,9 @@
         <v>-11.099999990691643</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>10</v>
       </c>
@@ -1189,75 +1178,7 @@
         <f t="shared" si="0"/>
         <v>-13.549999988637097</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="F24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
